--- a/po_analysis_by_asin/B0C8LS7PT2_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8LS7PT2_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45362</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
@@ -460,105 +460,169 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45481</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45488</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45495</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45502</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45509</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45516</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45523</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45530</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45537</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45544</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45551</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45558</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45579</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B15" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B23" t="n">
         <v>20</v>
       </c>
     </row>
@@ -573,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,7 +659,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
@@ -603,33 +667,65 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45536</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45566</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B10" t="n">
         <v>20</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C8LS7PT2_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8LS7PT2_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,161 +468,129 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45550.99999999999</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45557.99999999999</v>
-      </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45564.99999999999</v>
-      </c>
-      <c r="B22" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45585.99999999999</v>
-      </c>
-      <c r="B23" t="n">
         <v>20</v>
       </c>
     </row>
@@ -637,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +638,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -691,41 +659,33 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45504.99999999999</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45535.99999999999</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>126</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45565.99999999999</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45596.99999999999</v>
-      </c>
-      <c r="B10" t="n">
         <v>20</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C8LS7PT2_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8LS7PT2_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -621,7 +622,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -687,6 +688,411 @@
       </c>
       <c r="B9" t="n">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-10.09419099274506</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.06959981083741</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-10.45922346365151</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.00429069574198</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-9.220621540417106</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.46872826292023</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-8.425437367480338</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.61269463765984</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-8.192366793242243</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33.21015405408936</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.002623487348484</v>
+      </c>
+      <c r="D7" t="n">
+        <v>37.90545454395797</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.951780724505699</v>
+      </c>
+      <c r="D8" t="n">
+        <v>37.70794771835185</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.927817898801446</v>
+      </c>
+      <c r="D9" t="n">
+        <v>38.49715633655051</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.345806566267158</v>
+      </c>
+      <c r="D10" t="n">
+        <v>38.93752618106274</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-2.809502225123798</v>
+      </c>
+      <c r="D11" t="n">
+        <v>39.54497006951394</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>18</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.740885723889634</v>
+      </c>
+      <c r="D12" t="n">
+        <v>38.07945509468755</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.66344440181685</v>
+      </c>
+      <c r="D13" t="n">
+        <v>40.02040989129679</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.32379866790631</v>
+      </c>
+      <c r="D14" t="n">
+        <v>39.41605477539296</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.491663790209314</v>
+      </c>
+      <c r="D15" t="n">
+        <v>39.60754192357727</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.2893790244826248</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.64022998057851</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.8279046360947149</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.25840072921974</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.69725816741057</v>
+      </c>
+      <c r="D18" t="n">
+        <v>39.06037295814338</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.5829596408297242</v>
+      </c>
+      <c r="D19" t="n">
+        <v>42.08125621834862</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.7127842026146555</v>
+      </c>
+      <c r="D20" t="n">
+        <v>39.96904793143984</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.287081773957452</v>
+      </c>
+      <c r="D21" t="n">
+        <v>40.33250682075049</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5152123251515992</v>
+      </c>
+      <c r="D22" t="n">
+        <v>38.38134303414625</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.049012903050061</v>
+      </c>
+      <c r="D23" t="n">
+        <v>39.77193087731921</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.3672159860896225</v>
+      </c>
+      <c r="D24" t="n">
+        <v>41.86416697295713</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.3849199068045632</v>
+      </c>
+      <c r="D25" t="n">
+        <v>39.99491414573833</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>21</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4066433206818195</v>
+      </c>
+      <c r="D26" t="n">
+        <v>40.57222139501176</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>21</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.4790644642033959</v>
+      </c>
+      <c r="D27" t="n">
+        <v>41.21764404240746</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C8LS7PT2_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8LS7PT2_po_data.xlsx
@@ -701,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,16 +720,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -738,12 +728,6 @@
       <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
-        <v>-10.09419099274506</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.06959981083741</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -752,12 +736,6 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>-10.45922346365151</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.00429069574198</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -766,12 +744,6 @@
       <c r="B4" t="n">
         <v>11</v>
       </c>
-      <c r="C4" t="n">
-        <v>-9.220621540417106</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.46872826292023</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -780,12 +752,6 @@
       <c r="B5" t="n">
         <v>12</v>
       </c>
-      <c r="C5" t="n">
-        <v>-8.425437367480338</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.61269463765984</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -794,12 +760,6 @@
       <c r="B6" t="n">
         <v>13</v>
       </c>
-      <c r="C6" t="n">
-        <v>-8.192366793242243</v>
-      </c>
-      <c r="D6" t="n">
-        <v>33.21015405408936</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -808,12 +768,6 @@
       <c r="B7" t="n">
         <v>18</v>
       </c>
-      <c r="C7" t="n">
-        <v>-1.002623487348484</v>
-      </c>
-      <c r="D7" t="n">
-        <v>37.90545454395797</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -822,12 +776,6 @@
       <c r="B8" t="n">
         <v>18</v>
       </c>
-      <c r="C8" t="n">
-        <v>-1.951780724505699</v>
-      </c>
-      <c r="D8" t="n">
-        <v>37.70794771835185</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -836,12 +784,6 @@
       <c r="B9" t="n">
         <v>18</v>
       </c>
-      <c r="C9" t="n">
-        <v>-1.927817898801446</v>
-      </c>
-      <c r="D9" t="n">
-        <v>38.49715633655051</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -850,12 +792,6 @@
       <c r="B10" t="n">
         <v>18</v>
       </c>
-      <c r="C10" t="n">
-        <v>-2.345806566267158</v>
-      </c>
-      <c r="D10" t="n">
-        <v>38.93752618106274</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -864,12 +800,6 @@
       <c r="B11" t="n">
         <v>18</v>
       </c>
-      <c r="C11" t="n">
-        <v>-2.809502225123798</v>
-      </c>
-      <c r="D11" t="n">
-        <v>39.54497006951394</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -878,12 +808,6 @@
       <c r="B12" t="n">
         <v>18</v>
       </c>
-      <c r="C12" t="n">
-        <v>-2.740885723889634</v>
-      </c>
-      <c r="D12" t="n">
-        <v>38.07945509468755</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -892,12 +816,6 @@
       <c r="B13" t="n">
         <v>19</v>
       </c>
-      <c r="C13" t="n">
-        <v>-1.66344440181685</v>
-      </c>
-      <c r="D13" t="n">
-        <v>40.02040989129679</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -906,12 +824,6 @@
       <c r="B14" t="n">
         <v>19</v>
       </c>
-      <c r="C14" t="n">
-        <v>-1.32379866790631</v>
-      </c>
-      <c r="D14" t="n">
-        <v>39.41605477539296</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -920,12 +832,6 @@
       <c r="B15" t="n">
         <v>19</v>
       </c>
-      <c r="C15" t="n">
-        <v>-1.491663790209314</v>
-      </c>
-      <c r="D15" t="n">
-        <v>39.60754192357727</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -934,12 +840,6 @@
       <c r="B16" t="n">
         <v>19</v>
       </c>
-      <c r="C16" t="n">
-        <v>-0.2893790244826248</v>
-      </c>
-      <c r="D16" t="n">
-        <v>39.64022998057851</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -948,12 +848,6 @@
       <c r="B17" t="n">
         <v>19</v>
       </c>
-      <c r="C17" t="n">
-        <v>-0.8279046360947149</v>
-      </c>
-      <c r="D17" t="n">
-        <v>39.25840072921974</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -962,12 +856,6 @@
       <c r="B18" t="n">
         <v>19</v>
       </c>
-      <c r="C18" t="n">
-        <v>-1.69725816741057</v>
-      </c>
-      <c r="D18" t="n">
-        <v>39.06037295814338</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -976,12 +864,6 @@
       <c r="B19" t="n">
         <v>20</v>
       </c>
-      <c r="C19" t="n">
-        <v>-0.5829596408297242</v>
-      </c>
-      <c r="D19" t="n">
-        <v>42.08125621834862</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -990,12 +872,6 @@
       <c r="B20" t="n">
         <v>20</v>
       </c>
-      <c r="C20" t="n">
-        <v>-0.7127842026146555</v>
-      </c>
-      <c r="D20" t="n">
-        <v>39.96904793143984</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1004,12 +880,6 @@
       <c r="B21" t="n">
         <v>20</v>
       </c>
-      <c r="C21" t="n">
-        <v>1.287081773957452</v>
-      </c>
-      <c r="D21" t="n">
-        <v>40.33250682075049</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1018,12 +888,6 @@
       <c r="B22" t="n">
         <v>20</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.5152123251515992</v>
-      </c>
-      <c r="D22" t="n">
-        <v>38.38134303414625</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1032,12 +896,6 @@
       <c r="B23" t="n">
         <v>20</v>
       </c>
-      <c r="C23" t="n">
-        <v>-1.049012903050061</v>
-      </c>
-      <c r="D23" t="n">
-        <v>39.77193087731921</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1046,12 +904,6 @@
       <c r="B24" t="n">
         <v>20</v>
       </c>
-      <c r="C24" t="n">
-        <v>-0.3672159860896225</v>
-      </c>
-      <c r="D24" t="n">
-        <v>41.86416697295713</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1060,12 +912,6 @@
       <c r="B25" t="n">
         <v>20</v>
       </c>
-      <c r="C25" t="n">
-        <v>-0.3849199068045632</v>
-      </c>
-      <c r="D25" t="n">
-        <v>39.99491414573833</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1074,12 +920,6 @@
       <c r="B26" t="n">
         <v>21</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.4066433206818195</v>
-      </c>
-      <c r="D26" t="n">
-        <v>40.57222139501176</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1087,12 +927,6 @@
       </c>
       <c r="B27" t="n">
         <v>21</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.4790644642033959</v>
-      </c>
-      <c r="D27" t="n">
-        <v>41.21764404240746</v>
       </c>
     </row>
   </sheetData>
